--- a/data/VareExample.xlsx
+++ b/data/VareExample.xlsx
@@ -5,26 +5,409 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Devan.McGranahan\GoogleDrive\Teaching\Classes\Intro to R\course materials\class session materials\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Devan.McGranahan\GoogleDrive\IntroRangeR\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15375" windowHeight="7425"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15373" windowHeight="7427" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="vareman" sheetId="1" r:id="rId1"/>
+    <sheet name="Management" sheetId="2" r:id="rId1"/>
+    <sheet name="SpeciesData" sheetId="4" r:id="rId2"/>
+    <sheet name="SoilChemistry" sheetId="5" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
-  <si>
-    <t>Bi</t>
-  </si>
-  <si>
-    <t>Tri</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="129">
+  <si>
+    <t>SampleID</t>
+  </si>
+  <si>
+    <t>Pasture</t>
+  </si>
+  <si>
+    <t>Treatment</t>
+  </si>
+  <si>
+    <t>PastureName</t>
+  </si>
+  <si>
+    <t>BurnSeason</t>
+  </si>
+  <si>
+    <t>BareSoil</t>
+  </si>
+  <si>
+    <t>1.1.1</t>
+  </si>
+  <si>
+    <t>North</t>
+  </si>
+  <si>
+    <t>Spring</t>
+  </si>
+  <si>
+    <t>42.5, 43.1, 43.9</t>
+  </si>
+  <si>
+    <t>2.2.1</t>
+  </si>
+  <si>
+    <t>South</t>
+  </si>
+  <si>
+    <t>Summer</t>
+  </si>
+  <si>
+    <t>22.4, 23.9, 23.6</t>
+  </si>
+  <si>
+    <t>2.2.2</t>
+  </si>
+  <si>
+    <t>20.2, 22.4, 21.2</t>
+  </si>
+  <si>
+    <t>2.2.3</t>
+  </si>
+  <si>
+    <t>18.0, 18.7</t>
+  </si>
+  <si>
+    <t>2.2.4</t>
+  </si>
+  <si>
+    <t>45.6, 47.2, 46</t>
+  </si>
+  <si>
+    <t>2.2.5</t>
+  </si>
+  <si>
+    <t>39.4, 36.1, 40.5</t>
+  </si>
+  <si>
+    <t>2.2.6</t>
+  </si>
+  <si>
+    <t>22.3, 24.1, 23.0</t>
+  </si>
+  <si>
+    <t>2.2.7</t>
+  </si>
+  <si>
+    <t>29.1, 29.8</t>
+  </si>
+  <si>
+    <t>2.2.8</t>
+  </si>
+  <si>
+    <t>17.4, 18.2, 17.6</t>
+  </si>
+  <si>
+    <t>1.1.2</t>
+  </si>
+  <si>
+    <t>28.1, 30.4, 29.9</t>
+  </si>
+  <si>
+    <t>2.2.9</t>
+  </si>
+  <si>
+    <t>32.5, 31.8, 33.3</t>
+  </si>
+  <si>
+    <t>2.2.10</t>
+  </si>
+  <si>
+    <t>55.6, 54.3, 56.9</t>
+  </si>
+  <si>
+    <t>2.2.11</t>
+  </si>
+  <si>
+    <t>22.1, 24.1, 23.7</t>
+  </si>
+  <si>
+    <t>1.1.3</t>
+  </si>
+  <si>
+    <t>18.0, 19.4, 18.6</t>
+  </si>
+  <si>
+    <t>1.1.4</t>
+  </si>
+  <si>
+    <t>8.0, 9.3, 8.1</t>
+  </si>
+  <si>
+    <t>1.1.5</t>
+  </si>
+  <si>
+    <t>3.4, 7.1, 5.8</t>
+  </si>
+  <si>
+    <t>1.1.6</t>
+  </si>
+  <si>
+    <t>3.2, 4.1, 3.6</t>
+  </si>
+  <si>
+    <t>1.1.7</t>
+  </si>
+  <si>
+    <t>20.5, 22.4, 21.3</t>
+  </si>
+  <si>
+    <t>1.3.1</t>
+  </si>
+  <si>
+    <t>Fall</t>
+  </si>
+  <si>
+    <t>0.0, 0.1, 0.01</t>
+  </si>
+  <si>
+    <t>1.3.2</t>
+  </si>
+  <si>
+    <t>4.5, 6.4, 6.07</t>
+  </si>
+  <si>
+    <t>1.3.3</t>
+  </si>
+  <si>
+    <t>10.1, 12.3, 11.2</t>
+  </si>
+  <si>
+    <t>1.3.4</t>
+  </si>
+  <si>
+    <t>4.0, 4.2, 4.4</t>
+  </si>
+  <si>
+    <t>1.1.8</t>
+  </si>
+  <si>
+    <t>3.4, 8.2, 7.6</t>
+  </si>
+  <si>
+    <t>1.3.5</t>
+  </si>
+  <si>
+    <t>49.5, 58.7, 56</t>
+  </si>
+  <si>
+    <t>Point</t>
+  </si>
+  <si>
+    <t>Callvulg</t>
+  </si>
+  <si>
+    <t>Empenigr</t>
+  </si>
+  <si>
+    <t>Rhodtome</t>
+  </si>
+  <si>
+    <t>Vaccmyrt</t>
+  </si>
+  <si>
+    <t>Vaccviti</t>
+  </si>
+  <si>
+    <t>Pinusylv</t>
+  </si>
+  <si>
+    <t>Descflex</t>
+  </si>
+  <si>
+    <t>Betupube</t>
+  </si>
+  <si>
+    <t>Vacculig</t>
+  </si>
+  <si>
+    <t>Diphcomp</t>
+  </si>
+  <si>
+    <t>Dicrsp</t>
+  </si>
+  <si>
+    <t>Dicrfusc</t>
+  </si>
+  <si>
+    <t>Dicrpoly</t>
+  </si>
+  <si>
+    <t>Hylosple</t>
+  </si>
+  <si>
+    <t>Pleuschr</t>
+  </si>
+  <si>
+    <t>Polypili</t>
+  </si>
+  <si>
+    <t>Polyjuni</t>
+  </si>
+  <si>
+    <t>Polycomm</t>
+  </si>
+  <si>
+    <t>Pohlnuta</t>
+  </si>
+  <si>
+    <t>Ptilcili</t>
+  </si>
+  <si>
+    <t>Barbhatc</t>
+  </si>
+  <si>
+    <t>Cladarbu</t>
+  </si>
+  <si>
+    <t>Cladrang</t>
+  </si>
+  <si>
+    <t>Cladstel</t>
+  </si>
+  <si>
+    <t>Cladunci</t>
+  </si>
+  <si>
+    <t>Cladcocc</t>
+  </si>
+  <si>
+    <t>Cladcorn</t>
+  </si>
+  <si>
+    <t>Cladgrac</t>
+  </si>
+  <si>
+    <t>Cladfimb</t>
+  </si>
+  <si>
+    <t>Cladcris</t>
+  </si>
+  <si>
+    <t>Cladchlo</t>
+  </si>
+  <si>
+    <t>Cladbotr</t>
+  </si>
+  <si>
+    <t>Cladamau</t>
+  </si>
+  <si>
+    <t>Cladsp</t>
+  </si>
+  <si>
+    <t>Cetreric</t>
+  </si>
+  <si>
+    <t>Cetrisla</t>
+  </si>
+  <si>
+    <t>Flavniva</t>
+  </si>
+  <si>
+    <t>Nepharct</t>
+  </si>
+  <si>
+    <t>Stersp</t>
+  </si>
+  <si>
+    <t>Peltapht</t>
+  </si>
+  <si>
+    <t>Icmaeric</t>
+  </si>
+  <si>
+    <t>Cladcerv</t>
+  </si>
+  <si>
+    <t>Claddefo</t>
+  </si>
+  <si>
+    <t>Cladphyl</t>
+  </si>
+  <si>
+    <t>N:19.8,18.414,21.78;P:42.1,39.153,46.31;K:139.9,130.107,153.89</t>
+  </si>
+  <si>
+    <t>N:13.4,12.462,14.74;P:39.1,36.363,43.01;K:167.3,155.589,184.03</t>
+  </si>
+  <si>
+    <t>N:20.2,18.786,22.22;P:67.7,62.961,74.47;K:207.1,192.603,227.81</t>
+  </si>
+  <si>
+    <t>N:20.6,19.158,22.66;P:60.8,56.544,66.88;K:233.7,217.341,257.07</t>
+  </si>
+  <si>
+    <t>N:23.8,22.134,26.18;P:54.5,50.685,59.95;K:180.6,167.958,198.66</t>
+  </si>
+  <si>
+    <t>N:22.8,21.204,25.08;P:40.9,38.037,44.99;K:171.4,159.402,188.54</t>
+  </si>
+  <si>
+    <t>N:26.6,24.738,29.26;P:36.7,34.131,40.37;K:171.4,159.402,188.54</t>
+  </si>
+  <si>
+    <t>N:24.2,22.506,26.62;P:31,28.83,34.1;K:138.2,128.526,152.02</t>
+  </si>
+  <si>
+    <t>N:29.8,27.714,32.78;P:73.5,68.355,80.85;K:260,241.8,286</t>
+  </si>
+  <si>
+    <t>N:28.1,26.133,30.91;P:40.5,37.665,44.55;K:313.8,291.834,345.18</t>
+  </si>
+  <si>
+    <t>N:21.8,20.274,23.98;P:38.1,35.433,41.91;K:146.8,136.524,161.48</t>
+  </si>
+  <si>
+    <t>N:26.2,24.366,28.82;P:61.9,57.567,68.09;K:202.2,188.046,222.42</t>
+  </si>
+  <si>
+    <t>N:22.8,21.204,25.08;P:50.6,47.058,55.66;K:151.7,141.081,166.87</t>
+  </si>
+  <si>
+    <t>N:30.5,28.365,33.55;P:24.6,22.878,27.06;K:78.7,73.191,86.57</t>
+  </si>
+  <si>
+    <t>N:33.1,30.783,36.41;P:22.7,21.111,24.97;K:43.6,40.548,47.96</t>
+  </si>
+  <si>
+    <t>N:19.1,17.763,21.01;P:26.4,24.552,29.04;K:61.1,56.823,67.21</t>
+  </si>
+  <si>
+    <t>N:31.1,28.923,34.21;P:32.3,30.039,35.53;K:73.7,68.541,81.07</t>
+  </si>
+  <si>
+    <t>N:18,16.74,19.8;P:64.9,60.357,71.39;K:224.5,208.785,246.95</t>
+  </si>
+  <si>
+    <t>N:22.3,20.739,24.53;P:47.4,44.082,52.14;K:165.9,154.287,182.49</t>
+  </si>
+  <si>
+    <t>N:15,13.95,16.5;P:48.4,45.012,53.24;K:127.4,118.482,140.14</t>
+  </si>
+  <si>
+    <t>N:16,14.88,17.6;P:32.7,30.411,35.97;K:126.4,117.552,139.04</t>
+  </si>
+  <si>
+    <t>N:14.3,13.299,15.73;P:62.8,58.404,69.08;K:215.2,200.136,236.72</t>
+  </si>
+  <si>
+    <t>N:16.7,15.531,18.37;P:55.8,51.894,61.38;K:205.3,190.929,225.83</t>
+  </si>
+  <si>
+    <t>N:21,19.53,23.1;P:26.5,24.645,29.15;K:104.4,97.092,114.84</t>
+  </si>
+  <si>
+    <t>NPK</t>
   </si>
 </sst>
 </file>
@@ -831,23 +1214,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="3" max="3" width="9.05859375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.41015625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.05859375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A2">
-        <v>18</v>
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A2" t="s">
+        <v>6</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -855,10 +1255,19 @@
       <c r="C2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A3">
-        <v>15</v>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A3" t="s">
+        <v>10</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -866,10 +1275,19 @@
       <c r="C3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A4">
-        <v>24</v>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A4" t="s">
+        <v>14</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -877,10 +1295,19 @@
       <c r="C4">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A5">
-        <v>27</v>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A5" t="s">
+        <v>16</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -888,10 +1315,19 @@
       <c r="C5">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A6">
-        <v>23</v>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A6" t="s">
+        <v>18</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -899,10 +1335,19 @@
       <c r="C6">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A7">
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A7" t="s">
+        <v>20</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -910,9 +1355,18 @@
       <c r="C7">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A8">
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A8" t="s">
         <v>22</v>
       </c>
       <c r="B8">
@@ -921,10 +1375,19 @@
       <c r="C8">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A9">
-        <v>16</v>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A9" t="s">
+        <v>24</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -932,10 +1395,19 @@
       <c r="C9">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A10">
-        <v>28</v>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A10" t="s">
+        <v>26</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -943,10 +1415,19 @@
       <c r="C10">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A11">
-        <v>13</v>
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A11" t="s">
+        <v>28</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -954,10 +1435,19 @@
       <c r="C11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A12">
-        <v>14</v>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A12" t="s">
+        <v>30</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -965,10 +1455,19 @@
       <c r="C12">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A13">
-        <v>20</v>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A13" t="s">
+        <v>32</v>
       </c>
       <c r="B13">
         <v>2</v>
@@ -976,10 +1475,19 @@
       <c r="C13">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A14">
-        <v>25</v>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A14" t="s">
+        <v>34</v>
       </c>
       <c r="B14">
         <v>2</v>
@@ -987,10 +1495,19 @@
       <c r="C14">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A15">
-        <v>7</v>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A15" t="s">
+        <v>36</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -998,10 +1515,19 @@
       <c r="C15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A16">
-        <v>5</v>
+      <c r="D15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A16" t="s">
+        <v>38</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -1009,10 +1535,19 @@
       <c r="C16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A17">
-        <v>6</v>
+      <c r="D16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A17" t="s">
+        <v>40</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -1020,10 +1555,19 @@
       <c r="C17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A18">
-        <v>3</v>
+      <c r="D17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A18" t="s">
+        <v>42</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -1031,10 +1575,19 @@
       <c r="C18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A19">
-        <v>4</v>
+      <c r="D18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A19" t="s">
+        <v>44</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -1042,10 +1595,19 @@
       <c r="C19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A20">
-        <v>2</v>
+      <c r="D19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A20" t="s">
+        <v>46</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -1053,10 +1615,19 @@
       <c r="C20">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A21">
-        <v>9</v>
+      <c r="D20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" t="s">
+        <v>47</v>
+      </c>
+      <c r="F20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A21" t="s">
+        <v>49</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -1064,10 +1635,19 @@
       <c r="C21">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A22">
-        <v>12</v>
+      <c r="D21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" t="s">
+        <v>47</v>
+      </c>
+      <c r="F21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A22" t="s">
+        <v>51</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -1075,10 +1655,19 @@
       <c r="C22">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A23">
-        <v>10</v>
+      <c r="D22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" t="s">
+        <v>47</v>
+      </c>
+      <c r="F22" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A23" t="s">
+        <v>53</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -1086,10 +1675,19 @@
       <c r="C23">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A24">
-        <v>11</v>
+      <c r="D23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" t="s">
+        <v>47</v>
+      </c>
+      <c r="F23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A24" t="s">
+        <v>55</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -1097,16 +1695,3840 @@
       <c r="C24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A25">
-        <v>21</v>
+      <c r="D24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.5">
+      <c r="A25" t="s">
+        <v>57</v>
       </c>
       <c r="B25">
         <v>1</v>
       </c>
       <c r="C25">
         <v>3</v>
+      </c>
+      <c r="D25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" t="s">
+        <v>47</v>
+      </c>
+      <c r="F25" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AU25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetData>
+    <row r="1" spans="1:47" x14ac:dyDescent="0.5">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J1" t="s">
+        <v>66</v>
+      </c>
+      <c r="K1" t="s">
+        <v>67</v>
+      </c>
+      <c r="L1" t="s">
+        <v>68</v>
+      </c>
+      <c r="M1" t="s">
+        <v>69</v>
+      </c>
+      <c r="N1" t="s">
+        <v>70</v>
+      </c>
+      <c r="O1" t="s">
+        <v>71</v>
+      </c>
+      <c r="P1" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>73</v>
+      </c>
+      <c r="R1" t="s">
+        <v>74</v>
+      </c>
+      <c r="S1" t="s">
+        <v>75</v>
+      </c>
+      <c r="T1" t="s">
+        <v>76</v>
+      </c>
+      <c r="U1" t="s">
+        <v>77</v>
+      </c>
+      <c r="V1" t="s">
+        <v>78</v>
+      </c>
+      <c r="W1" t="s">
+        <v>79</v>
+      </c>
+      <c r="X1" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>87</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>92</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:47" x14ac:dyDescent="0.5">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E2">
+        <v>11.13</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>17.8</v>
+      </c>
+      <c r="I2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>1.6</v>
+      </c>
+      <c r="M2">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>1.62</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>4.67</v>
+      </c>
+      <c r="S2">
+        <v>0.02</v>
+      </c>
+      <c r="T2">
+        <v>0.13</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0.13</v>
+      </c>
+      <c r="W2">
+        <v>0.12</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>21.73</v>
+      </c>
+      <c r="Z2">
+        <v>21.47</v>
+      </c>
+      <c r="AA2">
+        <v>3.5</v>
+      </c>
+      <c r="AB2">
+        <v>0.3</v>
+      </c>
+      <c r="AC2">
+        <v>0.18</v>
+      </c>
+      <c r="AD2">
+        <v>0.23</v>
+      </c>
+      <c r="AE2">
+        <v>0.25</v>
+      </c>
+      <c r="AF2">
+        <v>0.25</v>
+      </c>
+      <c r="AG2">
+        <v>0.23</v>
+      </c>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
+      </c>
+      <c r="AJ2">
+        <v>0.08</v>
+      </c>
+      <c r="AK2">
+        <v>0.02</v>
+      </c>
+      <c r="AL2">
+        <v>0.02</v>
+      </c>
+      <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <v>0.12</v>
+      </c>
+      <c r="AO2">
+        <v>0.02</v>
+      </c>
+      <c r="AP2">
+        <v>0.62</v>
+      </c>
+      <c r="AQ2">
+        <v>0.02</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
+        <v>0</v>
+      </c>
+      <c r="AT2">
+        <v>0.25</v>
+      </c>
+      <c r="AU2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:47" x14ac:dyDescent="0.5">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0.67</v>
+      </c>
+      <c r="E3">
+        <v>0.17</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0.35</v>
+      </c>
+      <c r="H3">
+        <v>12.13</v>
+      </c>
+      <c r="I3">
+        <v>0.12</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0.33</v>
+      </c>
+      <c r="O3">
+        <v>10.92</v>
+      </c>
+      <c r="P3">
+        <v>0.02</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>37.75</v>
+      </c>
+      <c r="S3">
+        <v>0.02</v>
+      </c>
+      <c r="T3">
+        <v>0.23</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0.03</v>
+      </c>
+      <c r="W3">
+        <v>0.02</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>12.05</v>
+      </c>
+      <c r="Z3">
+        <v>8.1300000000000008</v>
+      </c>
+      <c r="AA3">
+        <v>0.18</v>
+      </c>
+      <c r="AB3">
+        <v>2.65</v>
+      </c>
+      <c r="AC3">
+        <v>0.13</v>
+      </c>
+      <c r="AD3">
+        <v>0.18</v>
+      </c>
+      <c r="AE3">
+        <v>0.23</v>
+      </c>
+      <c r="AF3">
+        <v>0.25</v>
+      </c>
+      <c r="AG3">
+        <v>1.23</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
+      </c>
+      <c r="AJ3">
+        <v>0</v>
+      </c>
+      <c r="AK3">
+        <v>0</v>
+      </c>
+      <c r="AL3">
+        <v>0.15</v>
+      </c>
+      <c r="AM3">
+        <v>0.03</v>
+      </c>
+      <c r="AN3">
+        <v>0</v>
+      </c>
+      <c r="AO3">
+        <v>0</v>
+      </c>
+      <c r="AP3">
+        <v>0.85</v>
+      </c>
+      <c r="AQ3">
+        <v>0</v>
+      </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
+        <v>0</v>
+      </c>
+      <c r="AT3">
+        <v>1</v>
+      </c>
+      <c r="AU3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:47" x14ac:dyDescent="0.5">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>0.1</v>
+      </c>
+      <c r="E4">
+        <v>1.55</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>13.47</v>
+      </c>
+      <c r="I4">
+        <v>0.25</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>23.43</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>1.68</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>32.92</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0.23</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0.32</v>
+      </c>
+      <c r="W4">
+        <v>0.03</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>3.58</v>
+      </c>
+      <c r="Z4">
+        <v>5.52</v>
+      </c>
+      <c r="AA4">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AB4">
+        <v>8.93</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0.2</v>
+      </c>
+      <c r="AE4">
+        <v>0.48</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AH4">
+        <v>0.1</v>
+      </c>
+      <c r="AI4">
+        <v>0.02</v>
+      </c>
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>0</v>
+      </c>
+      <c r="AL4">
+        <v>0.78</v>
+      </c>
+      <c r="AM4">
+        <v>0.12</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4">
+        <v>0</v>
+      </c>
+      <c r="AP4">
+        <v>0.03</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AT4">
+        <v>0.33</v>
+      </c>
+      <c r="AU4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:47" x14ac:dyDescent="0.5">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>15.13</v>
+      </c>
+      <c r="F5">
+        <v>2.42</v>
+      </c>
+      <c r="G5">
+        <v>5.92</v>
+      </c>
+      <c r="H5">
+        <v>15.97</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>3.7</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>3.63</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>6.7</v>
+      </c>
+      <c r="R5">
+        <v>58.07</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0.13</v>
+      </c>
+      <c r="V5">
+        <v>0.02</v>
+      </c>
+      <c r="W5">
+        <v>0.08</v>
+      </c>
+      <c r="X5">
+        <v>0.08</v>
+      </c>
+      <c r="Y5">
+        <v>1.42</v>
+      </c>
+      <c r="Z5">
+        <v>7.63</v>
+      </c>
+      <c r="AA5">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="AB5">
+        <v>0.15</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0.38</v>
+      </c>
+      <c r="AE5">
+        <v>0.12</v>
+      </c>
+      <c r="AF5">
+        <v>0.1</v>
+      </c>
+      <c r="AG5">
+        <v>0.03</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0.02</v>
+      </c>
+      <c r="AJ5">
+        <v>0</v>
+      </c>
+      <c r="AK5">
+        <v>0.02</v>
+      </c>
+      <c r="AL5">
+        <v>0</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5">
+        <v>0</v>
+      </c>
+      <c r="AO5">
+        <v>0</v>
+      </c>
+      <c r="AP5">
+        <v>0</v>
+      </c>
+      <c r="AQ5">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <v>0</v>
+      </c>
+      <c r="AT5">
+        <v>0.15</v>
+      </c>
+      <c r="AU5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:47" x14ac:dyDescent="0.5">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>12.68</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>23.73</v>
+      </c>
+      <c r="I6">
+        <v>0.03</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>3.42</v>
+      </c>
+      <c r="P6">
+        <v>0.02</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>19.420000000000002</v>
+      </c>
+      <c r="S6">
+        <v>0.02</v>
+      </c>
+      <c r="T6">
+        <v>2.12</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0.17</v>
+      </c>
+      <c r="W6">
+        <v>1.8</v>
+      </c>
+      <c r="X6">
+        <v>0.02</v>
+      </c>
+      <c r="Y6">
+        <v>9.08</v>
+      </c>
+      <c r="Z6">
+        <v>9.2200000000000006</v>
+      </c>
+      <c r="AA6">
+        <v>0.05</v>
+      </c>
+      <c r="AB6">
+        <v>0.73</v>
+      </c>
+      <c r="AC6">
+        <v>0.08</v>
+      </c>
+      <c r="AD6">
+        <v>1.42</v>
+      </c>
+      <c r="AE6">
+        <v>0.5</v>
+      </c>
+      <c r="AF6">
+        <v>0.17</v>
+      </c>
+      <c r="AG6">
+        <v>1.78</v>
+      </c>
+      <c r="AH6">
+        <v>0.05</v>
+      </c>
+      <c r="AI6">
+        <v>0.05</v>
+      </c>
+      <c r="AJ6">
+        <v>0</v>
+      </c>
+      <c r="AK6">
+        <v>0</v>
+      </c>
+      <c r="AL6">
+        <v>0</v>
+      </c>
+      <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AN6">
+        <v>0.02</v>
+      </c>
+      <c r="AO6">
+        <v>0</v>
+      </c>
+      <c r="AP6">
+        <v>1.58</v>
+      </c>
+      <c r="AQ6">
+        <v>0.33</v>
+      </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
+        <v>0</v>
+      </c>
+      <c r="AT6">
+        <v>1.97</v>
+      </c>
+      <c r="AU6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:47" x14ac:dyDescent="0.5">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>8.92</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>2.42</v>
+      </c>
+      <c r="H7">
+        <v>10.28</v>
+      </c>
+      <c r="I7">
+        <v>0.12</v>
+      </c>
+      <c r="J7">
+        <v>0.02</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0.32</v>
+      </c>
+      <c r="P7">
+        <v>0.02</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>21.03</v>
+      </c>
+      <c r="S7">
+        <v>0.02</v>
+      </c>
+      <c r="T7">
+        <v>1.58</v>
+      </c>
+      <c r="U7">
+        <v>0.18</v>
+      </c>
+      <c r="V7">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="W7">
+        <v>0.27</v>
+      </c>
+      <c r="X7">
+        <v>0.02</v>
+      </c>
+      <c r="Y7">
+        <v>7.23</v>
+      </c>
+      <c r="Z7">
+        <v>4.95</v>
+      </c>
+      <c r="AA7">
+        <v>22.08</v>
+      </c>
+      <c r="AB7">
+        <v>0.25</v>
+      </c>
+      <c r="AC7">
+        <v>0.1</v>
+      </c>
+      <c r="AD7">
+        <v>0.25</v>
+      </c>
+      <c r="AE7">
+        <v>0.18</v>
+      </c>
+      <c r="AF7">
+        <v>0.1</v>
+      </c>
+      <c r="AG7">
+        <v>0.12</v>
+      </c>
+      <c r="AH7">
+        <v>0.05</v>
+      </c>
+      <c r="AI7">
+        <v>0.02</v>
+      </c>
+      <c r="AJ7">
+        <v>0</v>
+      </c>
+      <c r="AK7">
+        <v>0</v>
+      </c>
+      <c r="AL7">
+        <v>0</v>
+      </c>
+      <c r="AM7">
+        <v>0</v>
+      </c>
+      <c r="AN7">
+        <v>0.02</v>
+      </c>
+      <c r="AO7">
+        <v>0</v>
+      </c>
+      <c r="AP7">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="AQ7">
+        <v>0</v>
+      </c>
+      <c r="AR7">
+        <v>0</v>
+      </c>
+      <c r="AS7">
+        <v>0</v>
+      </c>
+      <c r="AT7">
+        <v>0.37</v>
+      </c>
+      <c r="AU7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:47" x14ac:dyDescent="0.5">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <v>4.7300000000000004</v>
+      </c>
+      <c r="E8">
+        <v>5.12</v>
+      </c>
+      <c r="F8">
+        <v>1.55</v>
+      </c>
+      <c r="G8">
+        <v>6.05</v>
+      </c>
+      <c r="H8">
+        <v>12.4</v>
+      </c>
+      <c r="I8">
+        <v>0.1</v>
+      </c>
+      <c r="J8">
+        <v>0.78</v>
+      </c>
+      <c r="K8">
+        <v>0.02</v>
+      </c>
+      <c r="L8">
+        <v>2</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0.03</v>
+      </c>
+      <c r="O8">
+        <v>37.07</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>26.38</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0.1</v>
+      </c>
+      <c r="W8">
+        <v>0.03</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>6.1</v>
+      </c>
+      <c r="Z8">
+        <v>3.6</v>
+      </c>
+      <c r="AA8">
+        <v>0.23</v>
+      </c>
+      <c r="AB8">
+        <v>2.38</v>
+      </c>
+      <c r="AC8">
+        <v>0.17</v>
+      </c>
+      <c r="AD8">
+        <v>0.13</v>
+      </c>
+      <c r="AE8">
+        <v>0.18</v>
+      </c>
+      <c r="AF8">
+        <v>0.2</v>
+      </c>
+      <c r="AG8">
+        <v>0.2</v>
+      </c>
+      <c r="AH8">
+        <v>0.02</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
+      </c>
+      <c r="AJ8">
+        <v>0</v>
+      </c>
+      <c r="AK8">
+        <v>0.02</v>
+      </c>
+      <c r="AL8">
+        <v>0.02</v>
+      </c>
+      <c r="AM8">
+        <v>0</v>
+      </c>
+      <c r="AN8">
+        <v>0</v>
+      </c>
+      <c r="AO8">
+        <v>0</v>
+      </c>
+      <c r="AP8">
+        <v>0</v>
+      </c>
+      <c r="AQ8">
+        <v>0</v>
+      </c>
+      <c r="AR8">
+        <v>0</v>
+      </c>
+      <c r="AS8">
+        <v>0</v>
+      </c>
+      <c r="AT8">
+        <v>0.15</v>
+      </c>
+      <c r="AU8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:47" x14ac:dyDescent="0.5">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>7</v>
+      </c>
+      <c r="D9">
+        <v>4.47</v>
+      </c>
+      <c r="E9">
+        <v>7.33</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>2.15</v>
+      </c>
+      <c r="H9">
+        <v>4.33</v>
+      </c>
+      <c r="I9">
+        <v>0.1</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>1.02</v>
+      </c>
+      <c r="O9">
+        <v>25.8</v>
+      </c>
+      <c r="P9">
+        <v>0.23</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>18.98</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0.02</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0.13</v>
+      </c>
+      <c r="W9">
+        <v>0.1</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>7.13</v>
+      </c>
+      <c r="Z9">
+        <v>14.03</v>
+      </c>
+      <c r="AA9">
+        <v>0.02</v>
+      </c>
+      <c r="AB9">
+        <v>0.82</v>
+      </c>
+      <c r="AC9">
+        <v>0.15</v>
+      </c>
+      <c r="AD9">
+        <v>0.05</v>
+      </c>
+      <c r="AE9">
+        <v>0.22</v>
+      </c>
+      <c r="AF9">
+        <v>0.22</v>
+      </c>
+      <c r="AG9">
+        <v>0.17</v>
+      </c>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
+      </c>
+      <c r="AJ9">
+        <v>0</v>
+      </c>
+      <c r="AK9">
+        <v>0.02</v>
+      </c>
+      <c r="AL9">
+        <v>0.18</v>
+      </c>
+      <c r="AM9">
+        <v>0.08</v>
+      </c>
+      <c r="AN9">
+        <v>0</v>
+      </c>
+      <c r="AO9">
+        <v>0</v>
+      </c>
+      <c r="AP9">
+        <v>0.03</v>
+      </c>
+      <c r="AQ9">
+        <v>0</v>
+      </c>
+      <c r="AR9">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AS9">
+        <v>0</v>
+      </c>
+      <c r="AT9">
+        <v>0.67</v>
+      </c>
+      <c r="AU9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:47" x14ac:dyDescent="0.5">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>8</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>1.63</v>
+      </c>
+      <c r="F10">
+        <v>0.35</v>
+      </c>
+      <c r="G10">
+        <v>18.27</v>
+      </c>
+      <c r="H10">
+        <v>7.13</v>
+      </c>
+      <c r="I10">
+        <v>0.05</v>
+      </c>
+      <c r="J10">
+        <v>0.4</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0.2</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0.3</v>
+      </c>
+      <c r="O10">
+        <v>0.52</v>
+      </c>
+      <c r="P10">
+        <v>0.2</v>
+      </c>
+      <c r="Q10">
+        <v>9.9700000000000006</v>
+      </c>
+      <c r="R10">
+        <v>70.03</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0.08</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="W10">
+        <v>0.03</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>0.17</v>
+      </c>
+      <c r="Z10">
+        <v>0.87</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>0.05</v>
+      </c>
+      <c r="AC10">
+        <v>0.02</v>
+      </c>
+      <c r="AD10">
+        <v>0.03</v>
+      </c>
+      <c r="AE10">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AF10">
+        <v>0.1</v>
+      </c>
+      <c r="AG10">
+        <v>0.02</v>
+      </c>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0.02</v>
+      </c>
+      <c r="AJ10">
+        <v>0</v>
+      </c>
+      <c r="AK10">
+        <v>0</v>
+      </c>
+      <c r="AL10">
+        <v>0</v>
+      </c>
+      <c r="AM10">
+        <v>0.02</v>
+      </c>
+      <c r="AN10">
+        <v>0</v>
+      </c>
+      <c r="AO10">
+        <v>0</v>
+      </c>
+      <c r="AP10">
+        <v>0.02</v>
+      </c>
+      <c r="AQ10">
+        <v>0</v>
+      </c>
+      <c r="AR10">
+        <v>0</v>
+      </c>
+      <c r="AS10">
+        <v>0</v>
+      </c>
+      <c r="AT10">
+        <v>0.08</v>
+      </c>
+      <c r="AU10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:47" x14ac:dyDescent="0.5">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>24.13</v>
+      </c>
+      <c r="E11">
+        <v>1.9</v>
+      </c>
+      <c r="F11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G11">
+        <v>0.22</v>
+      </c>
+      <c r="H11">
+        <v>5.3</v>
+      </c>
+      <c r="I11">
+        <v>0.12</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="N11">
+        <v>0.02</v>
+      </c>
+      <c r="O11">
+        <v>2.5</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>5.52</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0.02</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0.03</v>
+      </c>
+      <c r="W11">
+        <v>0.25</v>
+      </c>
+      <c r="X11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="Y11">
+        <v>23.07</v>
+      </c>
+      <c r="Z11">
+        <v>23.67</v>
+      </c>
+      <c r="AA11">
+        <v>11.9</v>
+      </c>
+      <c r="AB11">
+        <v>0.95</v>
+      </c>
+      <c r="AC11">
+        <v>0.17</v>
+      </c>
+      <c r="AD11">
+        <v>0.05</v>
+      </c>
+      <c r="AE11">
+        <v>0.23</v>
+      </c>
+      <c r="AF11">
+        <v>0.18</v>
+      </c>
+      <c r="AG11">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="AH11">
+        <v>0.02</v>
+      </c>
+      <c r="AI11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AJ11">
+        <v>0</v>
+      </c>
+      <c r="AK11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AL11">
+        <v>0.18</v>
+      </c>
+      <c r="AM11">
+        <v>0.02</v>
+      </c>
+      <c r="AN11">
+        <v>0</v>
+      </c>
+      <c r="AO11">
+        <v>0</v>
+      </c>
+      <c r="AP11">
+        <v>0.03</v>
+      </c>
+      <c r="AQ11">
+        <v>0.02</v>
+      </c>
+      <c r="AR11">
+        <v>0</v>
+      </c>
+      <c r="AS11">
+        <v>0</v>
+      </c>
+      <c r="AT11">
+        <v>0.47</v>
+      </c>
+      <c r="AU11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:47" x14ac:dyDescent="0.5">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>9</v>
+      </c>
+      <c r="D12">
+        <v>3.75</v>
+      </c>
+      <c r="E12">
+        <v>5.65</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0.08</v>
+      </c>
+      <c r="H12">
+        <v>5.3</v>
+      </c>
+      <c r="I12">
+        <v>0.1</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>11.32</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>7.75</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0.3</v>
+      </c>
+      <c r="U12">
+        <v>0.02</v>
+      </c>
+      <c r="V12">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>17.45</v>
+      </c>
+      <c r="Z12">
+        <v>1.32</v>
+      </c>
+      <c r="AA12">
+        <v>0.12</v>
+      </c>
+      <c r="AB12">
+        <v>23.68</v>
+      </c>
+      <c r="AC12">
+        <v>0.22</v>
+      </c>
+      <c r="AD12">
+        <v>0.5</v>
+      </c>
+      <c r="AE12">
+        <v>0.15</v>
+      </c>
+      <c r="AF12">
+        <v>0.23</v>
+      </c>
+      <c r="AG12">
+        <v>0.97</v>
+      </c>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
+      </c>
+      <c r="AJ12">
+        <v>0</v>
+      </c>
+      <c r="AK12">
+        <v>0</v>
+      </c>
+      <c r="AL12">
+        <v>0.68</v>
+      </c>
+      <c r="AM12">
+        <v>0.02</v>
+      </c>
+      <c r="AN12">
+        <v>0</v>
+      </c>
+      <c r="AO12">
+        <v>0</v>
+      </c>
+      <c r="AP12">
+        <v>0.33</v>
+      </c>
+      <c r="AQ12">
+        <v>0</v>
+      </c>
+      <c r="AR12">
+        <v>0.02</v>
+      </c>
+      <c r="AS12">
+        <v>0</v>
+      </c>
+      <c r="AT12">
+        <v>1.57</v>
+      </c>
+      <c r="AU12">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:47" x14ac:dyDescent="0.5">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>10</v>
+      </c>
+      <c r="D13">
+        <v>0.02</v>
+      </c>
+      <c r="E13">
+        <v>6.45</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>14.13</v>
+      </c>
+      <c r="I13">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0.47</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0.85</v>
+      </c>
+      <c r="O13">
+        <v>1.87</v>
+      </c>
+      <c r="P13">
+        <v>0.08</v>
+      </c>
+      <c r="Q13">
+        <v>1.35</v>
+      </c>
+      <c r="R13">
+        <v>13.73</v>
+      </c>
+      <c r="S13">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="T13">
+        <v>0.05</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0.12</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>6.8</v>
+      </c>
+      <c r="Z13">
+        <v>11.22</v>
+      </c>
+      <c r="AA13">
+        <v>0.05</v>
+      </c>
+      <c r="AB13">
+        <v>4.75</v>
+      </c>
+      <c r="AC13">
+        <v>0.03</v>
+      </c>
+      <c r="AD13">
+        <v>0.12</v>
+      </c>
+      <c r="AE13">
+        <v>0.22</v>
+      </c>
+      <c r="AF13">
+        <v>0.18</v>
+      </c>
+      <c r="AG13">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>0.02</v>
+      </c>
+      <c r="AJ13">
+        <v>0</v>
+      </c>
+      <c r="AK13">
+        <v>0.02</v>
+      </c>
+      <c r="AL13">
+        <v>0.15</v>
+      </c>
+      <c r="AM13">
+        <v>0</v>
+      </c>
+      <c r="AN13">
+        <v>0</v>
+      </c>
+      <c r="AO13">
+        <v>0.02</v>
+      </c>
+      <c r="AP13">
+        <v>0</v>
+      </c>
+      <c r="AQ13">
+        <v>0</v>
+      </c>
+      <c r="AR13">
+        <v>0</v>
+      </c>
+      <c r="AS13">
+        <v>0</v>
+      </c>
+      <c r="AT13">
+        <v>1.2</v>
+      </c>
+      <c r="AU13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:47" x14ac:dyDescent="0.5">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>11</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>6.93</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>10.6</v>
+      </c>
+      <c r="I14">
+        <v>0.02</v>
+      </c>
+      <c r="J14">
+        <v>0.1</v>
+      </c>
+      <c r="K14">
+        <v>0.02</v>
+      </c>
+      <c r="L14">
+        <v>0.05</v>
+      </c>
+      <c r="M14">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="N14">
+        <v>14.02</v>
+      </c>
+      <c r="O14">
+        <v>10.82</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0.02</v>
+      </c>
+      <c r="R14">
+        <v>28.77</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>6.98</v>
+      </c>
+      <c r="U14">
+        <v>0.13</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>0.22</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>6</v>
+      </c>
+      <c r="Z14">
+        <v>2.25</v>
+      </c>
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <v>0.8</v>
+      </c>
+      <c r="AC14">
+        <v>0.12</v>
+      </c>
+      <c r="AD14">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="AE14">
+        <v>0.17</v>
+      </c>
+      <c r="AF14">
+        <v>0.15</v>
+      </c>
+      <c r="AG14">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
+      </c>
+      <c r="AJ14">
+        <v>0</v>
+      </c>
+      <c r="AK14">
+        <v>0.02</v>
+      </c>
+      <c r="AL14">
+        <v>0.03</v>
+      </c>
+      <c r="AM14">
+        <v>0.02</v>
+      </c>
+      <c r="AN14">
+        <v>0</v>
+      </c>
+      <c r="AO14">
+        <v>4.87</v>
+      </c>
+      <c r="AP14">
+        <v>0.1</v>
+      </c>
+      <c r="AQ14">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AR14">
+        <v>0</v>
+      </c>
+      <c r="AS14">
+        <v>0.02</v>
+      </c>
+      <c r="AT14">
+        <v>0.05</v>
+      </c>
+      <c r="AU14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:47" x14ac:dyDescent="0.5">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>5.3</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0.05</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>8.1</v>
+      </c>
+      <c r="M15">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0.45</v>
+      </c>
+      <c r="P15">
+        <v>0.03</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0.1</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0.25</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>0.03</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>35</v>
+      </c>
+      <c r="Z15">
+        <v>42.5</v>
+      </c>
+      <c r="AA15">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="AB15">
+        <v>0.35</v>
+      </c>
+      <c r="AC15">
+        <v>0.08</v>
+      </c>
+      <c r="AD15">
+        <v>0.2</v>
+      </c>
+      <c r="AE15">
+        <v>0.25</v>
+      </c>
+      <c r="AF15">
+        <v>0.18</v>
+      </c>
+      <c r="AG15">
+        <v>0.13</v>
+      </c>
+      <c r="AH15">
+        <v>0.08</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
+      </c>
+      <c r="AJ15">
+        <v>0</v>
+      </c>
+      <c r="AK15">
+        <v>0</v>
+      </c>
+      <c r="AL15">
+        <v>0.05</v>
+      </c>
+      <c r="AM15">
+        <v>0</v>
+      </c>
+      <c r="AN15">
+        <v>0.23</v>
+      </c>
+      <c r="AO15">
+        <v>0.2</v>
+      </c>
+      <c r="AP15">
+        <v>0.93</v>
+      </c>
+      <c r="AQ15">
+        <v>0</v>
+      </c>
+      <c r="AR15">
+        <v>0.03</v>
+      </c>
+      <c r="AS15">
+        <v>0</v>
+      </c>
+      <c r="AT15">
+        <v>0.1</v>
+      </c>
+      <c r="AU15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:47" x14ac:dyDescent="0.5">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>4</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0.13</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>2.75</v>
+      </c>
+      <c r="I16">
+        <v>0.03</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0.25</v>
+      </c>
+      <c r="P16">
+        <v>0.03</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0.03</v>
+      </c>
+      <c r="S16">
+        <v>0.18</v>
+      </c>
+      <c r="T16">
+        <v>0.65</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>18.5</v>
+      </c>
+      <c r="Z16">
+        <v>59</v>
+      </c>
+      <c r="AA16">
+        <v>0.98</v>
+      </c>
+      <c r="AB16">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="AC16">
+        <v>0.23</v>
+      </c>
+      <c r="AD16">
+        <v>0.23</v>
+      </c>
+      <c r="AE16">
+        <v>0.23</v>
+      </c>
+      <c r="AF16">
+        <v>0.1</v>
+      </c>
+      <c r="AG16">
+        <v>0.05</v>
+      </c>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
+      </c>
+      <c r="AJ16">
+        <v>0.03</v>
+      </c>
+      <c r="AK16">
+        <v>0</v>
+      </c>
+      <c r="AL16">
+        <v>0.18</v>
+      </c>
+      <c r="AM16">
+        <v>0</v>
+      </c>
+      <c r="AN16">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="AO16">
+        <v>0</v>
+      </c>
+      <c r="AP16">
+        <v>10.28</v>
+      </c>
+      <c r="AQ16">
+        <v>0</v>
+      </c>
+      <c r="AR16">
+        <v>0.1</v>
+      </c>
+      <c r="AS16">
+        <v>0</v>
+      </c>
+      <c r="AT16">
+        <v>0.25</v>
+      </c>
+      <c r="AU16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:47" x14ac:dyDescent="0.5">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>5</v>
+      </c>
+      <c r="D17">
+        <v>0.3</v>
+      </c>
+      <c r="E17">
+        <v>5.75</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>10.5</v>
+      </c>
+      <c r="I17">
+        <v>0.1</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0.85</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0.05</v>
+      </c>
+      <c r="S17">
+        <v>0.03</v>
+      </c>
+      <c r="T17">
+        <v>0.08</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>0.08</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>39</v>
+      </c>
+      <c r="Z17">
+        <v>37.5</v>
+      </c>
+      <c r="AA17">
+        <v>11.3</v>
+      </c>
+      <c r="AB17">
+        <v>3.45</v>
+      </c>
+      <c r="AC17">
+        <v>0.18</v>
+      </c>
+      <c r="AD17">
+        <v>0.2</v>
+      </c>
+      <c r="AE17">
+        <v>0.25</v>
+      </c>
+      <c r="AF17">
+        <v>0.25</v>
+      </c>
+      <c r="AG17">
+        <v>0.23</v>
+      </c>
+      <c r="AH17">
+        <v>0.03</v>
+      </c>
+      <c r="AI17">
+        <v>0</v>
+      </c>
+      <c r="AJ17">
+        <v>0</v>
+      </c>
+      <c r="AK17">
+        <v>0.03</v>
+      </c>
+      <c r="AL17">
+        <v>0.35</v>
+      </c>
+      <c r="AM17">
+        <v>0</v>
+      </c>
+      <c r="AN17">
+        <v>0.08</v>
+      </c>
+      <c r="AO17">
+        <v>0</v>
+      </c>
+      <c r="AP17">
+        <v>0.03</v>
+      </c>
+      <c r="AQ17">
+        <v>0</v>
+      </c>
+      <c r="AR17">
+        <v>0</v>
+      </c>
+      <c r="AS17">
+        <v>0</v>
+      </c>
+      <c r="AT17">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="AU17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:47" x14ac:dyDescent="0.5">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>6</v>
+      </c>
+      <c r="D18">
+        <v>0.03</v>
+      </c>
+      <c r="E18">
+        <v>3.65</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>4.43</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>1.65</v>
+      </c>
+      <c r="M18">
+        <v>0.5</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0.05</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>0.03</v>
+      </c>
+      <c r="W18">
+        <v>0.03</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="Z18">
+        <v>29.5</v>
+      </c>
+      <c r="AA18">
+        <v>55.6</v>
+      </c>
+      <c r="AB18">
+        <v>0.25</v>
+      </c>
+      <c r="AC18">
+        <v>0.08</v>
+      </c>
+      <c r="AD18">
+        <v>0.25</v>
+      </c>
+      <c r="AE18">
+        <v>0.25</v>
+      </c>
+      <c r="AF18">
+        <v>0.15</v>
+      </c>
+      <c r="AG18">
+        <v>0.1</v>
+      </c>
+      <c r="AH18">
+        <v>0.03</v>
+      </c>
+      <c r="AI18">
+        <v>0</v>
+      </c>
+      <c r="AJ18">
+        <v>0.03</v>
+      </c>
+      <c r="AK18">
+        <v>0</v>
+      </c>
+      <c r="AL18">
+        <v>0.05</v>
+      </c>
+      <c r="AM18">
+        <v>0</v>
+      </c>
+      <c r="AN18">
+        <v>0.15</v>
+      </c>
+      <c r="AO18">
+        <v>0.15</v>
+      </c>
+      <c r="AP18">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="AQ18">
+        <v>0</v>
+      </c>
+      <c r="AR18">
+        <v>0</v>
+      </c>
+      <c r="AS18">
+        <v>0</v>
+      </c>
+      <c r="AT18">
+        <v>0.08</v>
+      </c>
+      <c r="AU18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:47" x14ac:dyDescent="0.5">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>7</v>
+      </c>
+      <c r="D19">
+        <v>3.4</v>
+      </c>
+      <c r="E19">
+        <v>0.63</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>1.98</v>
+      </c>
+      <c r="I19">
+        <v>0.05</v>
+      </c>
+      <c r="J19">
+        <v>0.05</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0.03</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0.2</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>1.53</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>0.1</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>0.05</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19">
+        <v>15.73</v>
+      </c>
+      <c r="Z19">
+        <v>20.03</v>
+      </c>
+      <c r="AA19">
+        <v>28.2</v>
+      </c>
+      <c r="AB19">
+        <v>0.73</v>
+      </c>
+      <c r="AC19">
+        <v>0.1</v>
+      </c>
+      <c r="AD19">
+        <v>0.15</v>
+      </c>
+      <c r="AE19">
+        <v>0.13</v>
+      </c>
+      <c r="AF19">
+        <v>0.1</v>
+      </c>
+      <c r="AG19">
+        <v>0.15</v>
+      </c>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <v>0</v>
+      </c>
+      <c r="AJ19">
+        <v>0</v>
+      </c>
+      <c r="AK19">
+        <v>0.05</v>
+      </c>
+      <c r="AL19">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="AM19">
+        <v>0.05</v>
+      </c>
+      <c r="AN19">
+        <v>10.029999999999999</v>
+      </c>
+      <c r="AO19">
+        <v>0</v>
+      </c>
+      <c r="AP19">
+        <v>0.95</v>
+      </c>
+      <c r="AQ19">
+        <v>0</v>
+      </c>
+      <c r="AR19">
+        <v>0</v>
+      </c>
+      <c r="AS19">
+        <v>0.05</v>
+      </c>
+      <c r="AT19">
+        <v>0.08</v>
+      </c>
+      <c r="AU19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:47" x14ac:dyDescent="0.5">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>0.05</v>
+      </c>
+      <c r="E20">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>8.5</v>
+      </c>
+      <c r="I20">
+        <v>0.03</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0.03</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0.75</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>0.03</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>0.03</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <v>0.48</v>
+      </c>
+      <c r="Z20">
+        <v>24.5</v>
+      </c>
+      <c r="AA20">
+        <v>75</v>
+      </c>
+      <c r="AB20">
+        <v>0.2</v>
+      </c>
+      <c r="AC20">
+        <v>0</v>
+      </c>
+      <c r="AD20">
+        <v>0.03</v>
+      </c>
+      <c r="AE20">
+        <v>0.03</v>
+      </c>
+      <c r="AF20">
+        <v>0.05</v>
+      </c>
+      <c r="AG20">
+        <v>0.03</v>
+      </c>
+      <c r="AH20">
+        <v>0.03</v>
+      </c>
+      <c r="AI20">
+        <v>0</v>
+      </c>
+      <c r="AJ20">
+        <v>0</v>
+      </c>
+      <c r="AK20">
+        <v>0</v>
+      </c>
+      <c r="AL20">
+        <v>0</v>
+      </c>
+      <c r="AM20">
+        <v>0</v>
+      </c>
+      <c r="AN20">
+        <v>0</v>
+      </c>
+      <c r="AO20">
+        <v>0</v>
+      </c>
+      <c r="AP20">
+        <v>0</v>
+      </c>
+      <c r="AQ20">
+        <v>0</v>
+      </c>
+      <c r="AR20">
+        <v>0</v>
+      </c>
+      <c r="AS20">
+        <v>0.03</v>
+      </c>
+      <c r="AT20">
+        <v>0.03</v>
+      </c>
+      <c r="AU20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:47" x14ac:dyDescent="0.5">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>3.47</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0.25</v>
+      </c>
+      <c r="H21">
+        <v>20.5</v>
+      </c>
+      <c r="I21">
+        <v>0.25</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0.25</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0.38</v>
+      </c>
+      <c r="P21">
+        <v>0.25</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>4.07</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>0.25</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>0.25</v>
+      </c>
+      <c r="W21">
+        <v>0.25</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21">
+        <v>0.46</v>
+      </c>
+      <c r="Z21">
+        <v>4</v>
+      </c>
+      <c r="AA21">
+        <v>84.3</v>
+      </c>
+      <c r="AB21">
+        <v>0.25</v>
+      </c>
+      <c r="AC21">
+        <v>0.25</v>
+      </c>
+      <c r="AD21">
+        <v>0.25</v>
+      </c>
+      <c r="AE21">
+        <v>0.25</v>
+      </c>
+      <c r="AF21">
+        <v>0.25</v>
+      </c>
+      <c r="AG21">
+        <v>0.25</v>
+      </c>
+      <c r="AH21">
+        <v>0.25</v>
+      </c>
+      <c r="AI21">
+        <v>0</v>
+      </c>
+      <c r="AJ21">
+        <v>0</v>
+      </c>
+      <c r="AK21">
+        <v>0.25</v>
+      </c>
+      <c r="AL21">
+        <v>0.25</v>
+      </c>
+      <c r="AM21">
+        <v>0.25</v>
+      </c>
+      <c r="AN21">
+        <v>0.67</v>
+      </c>
+      <c r="AO21">
+        <v>0</v>
+      </c>
+      <c r="AP21">
+        <v>0</v>
+      </c>
+      <c r="AQ21">
+        <v>0</v>
+      </c>
+      <c r="AR21">
+        <v>0</v>
+      </c>
+      <c r="AS21">
+        <v>0</v>
+      </c>
+      <c r="AT21">
+        <v>0.25</v>
+      </c>
+      <c r="AU21">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:47" x14ac:dyDescent="0.5">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
+      </c>
+      <c r="D22">
+        <v>0.25</v>
+      </c>
+      <c r="E22">
+        <v>11.5</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>15.8</v>
+      </c>
+      <c r="I22">
+        <v>1.2</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0.25</v>
+      </c>
+      <c r="O22">
+        <v>0.25</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>6</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <v>0.25</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <v>3.6</v>
+      </c>
+      <c r="Z22">
+        <v>14.6</v>
+      </c>
+      <c r="AA22">
+        <v>63.3</v>
+      </c>
+      <c r="AB22">
+        <v>1.3</v>
+      </c>
+      <c r="AC22">
+        <v>0</v>
+      </c>
+      <c r="AD22">
+        <v>0.25</v>
+      </c>
+      <c r="AE22">
+        <v>0.25</v>
+      </c>
+      <c r="AF22">
+        <v>0.25</v>
+      </c>
+      <c r="AG22">
+        <v>0.25</v>
+      </c>
+      <c r="AH22">
+        <v>0</v>
+      </c>
+      <c r="AI22">
+        <v>0</v>
+      </c>
+      <c r="AJ22">
+        <v>0</v>
+      </c>
+      <c r="AK22">
+        <v>0</v>
+      </c>
+      <c r="AL22">
+        <v>0</v>
+      </c>
+      <c r="AM22">
+        <v>0.25</v>
+      </c>
+      <c r="AN22">
+        <v>0</v>
+      </c>
+      <c r="AO22">
+        <v>0</v>
+      </c>
+      <c r="AP22">
+        <v>0</v>
+      </c>
+      <c r="AQ22">
+        <v>0</v>
+      </c>
+      <c r="AR22">
+        <v>0</v>
+      </c>
+      <c r="AS22">
+        <v>0</v>
+      </c>
+      <c r="AT22">
+        <v>0.25</v>
+      </c>
+      <c r="AU22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:47" x14ac:dyDescent="0.5">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23">
+        <v>4</v>
+      </c>
+      <c r="D23">
+        <v>0.25</v>
+      </c>
+      <c r="E23">
+        <v>11</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>11.9</v>
+      </c>
+      <c r="I23">
+        <v>0.25</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0.25</v>
+      </c>
+      <c r="P23">
+        <v>0.25</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0.67</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>0.25</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>0.25</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23">
+        <v>1.3</v>
+      </c>
+      <c r="Z23">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="AA23">
+        <v>84.3</v>
+      </c>
+      <c r="AB23">
+        <v>0.25</v>
+      </c>
+      <c r="AC23">
+        <v>0.25</v>
+      </c>
+      <c r="AD23">
+        <v>0.25</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
+      </c>
+      <c r="AF23">
+        <v>0.25</v>
+      </c>
+      <c r="AG23">
+        <v>0.25</v>
+      </c>
+      <c r="AH23">
+        <v>0.25</v>
+      </c>
+      <c r="AI23">
+        <v>0</v>
+      </c>
+      <c r="AJ23">
+        <v>0</v>
+      </c>
+      <c r="AK23">
+        <v>0</v>
+      </c>
+      <c r="AL23">
+        <v>0.25</v>
+      </c>
+      <c r="AM23">
+        <v>0.25</v>
+      </c>
+      <c r="AN23">
+        <v>0.25</v>
+      </c>
+      <c r="AO23">
+        <v>0</v>
+      </c>
+      <c r="AP23">
+        <v>0.25</v>
+      </c>
+      <c r="AQ23">
+        <v>0</v>
+      </c>
+      <c r="AR23">
+        <v>0</v>
+      </c>
+      <c r="AS23">
+        <v>0</v>
+      </c>
+      <c r="AT23">
+        <v>0.25</v>
+      </c>
+      <c r="AU23">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:47" x14ac:dyDescent="0.5">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>8</v>
+      </c>
+      <c r="D24">
+        <v>2.37</v>
+      </c>
+      <c r="E24">
+        <v>0.67</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>12.9</v>
+      </c>
+      <c r="I24">
+        <v>0.8</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0.25</v>
+      </c>
+      <c r="P24">
+        <v>0.25</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>17.7</v>
+      </c>
+      <c r="S24">
+        <v>0.25</v>
+      </c>
+      <c r="T24">
+        <v>0.25</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <v>0.25</v>
+      </c>
+      <c r="W24">
+        <v>0.67</v>
+      </c>
+      <c r="X24">
+        <v>0</v>
+      </c>
+      <c r="Y24">
+        <v>9.67</v>
+      </c>
+      <c r="Z24">
+        <v>29.8</v>
+      </c>
+      <c r="AA24">
+        <v>31.8</v>
+      </c>
+      <c r="AB24">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="AC24">
+        <v>0.25</v>
+      </c>
+      <c r="AD24">
+        <v>0.25</v>
+      </c>
+      <c r="AE24">
+        <v>0.25</v>
+      </c>
+      <c r="AF24">
+        <v>0</v>
+      </c>
+      <c r="AG24">
+        <v>0.25</v>
+      </c>
+      <c r="AH24">
+        <v>0</v>
+      </c>
+      <c r="AI24">
+        <v>0</v>
+      </c>
+      <c r="AJ24">
+        <v>0</v>
+      </c>
+      <c r="AK24">
+        <v>0</v>
+      </c>
+      <c r="AL24">
+        <v>0</v>
+      </c>
+      <c r="AM24">
+        <v>0.25</v>
+      </c>
+      <c r="AN24">
+        <v>0</v>
+      </c>
+      <c r="AO24">
+        <v>0</v>
+      </c>
+      <c r="AP24">
+        <v>0.93</v>
+      </c>
+      <c r="AQ24">
+        <v>0.25</v>
+      </c>
+      <c r="AR24">
+        <v>0</v>
+      </c>
+      <c r="AS24">
+        <v>0</v>
+      </c>
+      <c r="AT24">
+        <v>0</v>
+      </c>
+      <c r="AU24">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:47" x14ac:dyDescent="0.5">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="C25">
+        <v>5</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>16</v>
+      </c>
+      <c r="F25">
+        <v>4</v>
+      </c>
+      <c r="G25">
+        <v>15</v>
+      </c>
+      <c r="H25">
+        <v>25</v>
+      </c>
+      <c r="I25">
+        <v>0.25</v>
+      </c>
+      <c r="J25">
+        <v>0.5</v>
+      </c>
+      <c r="K25">
+        <v>0.25</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0.25</v>
+      </c>
+      <c r="O25">
+        <v>0.25</v>
+      </c>
+      <c r="P25">
+        <v>3</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>2</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <v>0.25</v>
+      </c>
+      <c r="U25">
+        <v>0.25</v>
+      </c>
+      <c r="V25">
+        <v>0.25</v>
+      </c>
+      <c r="W25">
+        <v>10</v>
+      </c>
+      <c r="X25">
+        <v>3</v>
+      </c>
+      <c r="Y25">
+        <v>0.7</v>
+      </c>
+      <c r="Z25">
+        <v>4.7</v>
+      </c>
+      <c r="AA25">
+        <v>10.9</v>
+      </c>
+      <c r="AB25">
+        <v>0.25</v>
+      </c>
+      <c r="AC25">
+        <v>0</v>
+      </c>
+      <c r="AD25">
+        <v>0.05</v>
+      </c>
+      <c r="AE25">
+        <v>0.25</v>
+      </c>
+      <c r="AF25">
+        <v>0.25</v>
+      </c>
+      <c r="AG25">
+        <v>0.25</v>
+      </c>
+      <c r="AH25">
+        <v>0.25</v>
+      </c>
+      <c r="AI25">
+        <v>0.25</v>
+      </c>
+      <c r="AJ25">
+        <v>0</v>
+      </c>
+      <c r="AK25">
+        <v>0</v>
+      </c>
+      <c r="AL25">
+        <v>0</v>
+      </c>
+      <c r="AM25">
+        <v>0.67</v>
+      </c>
+      <c r="AN25">
+        <v>0</v>
+      </c>
+      <c r="AO25">
+        <v>0</v>
+      </c>
+      <c r="AP25">
+        <v>0</v>
+      </c>
+      <c r="AQ25">
+        <v>0</v>
+      </c>
+      <c r="AR25">
+        <v>0</v>
+      </c>
+      <c r="AS25">
+        <v>0</v>
+      </c>
+      <c r="AT25">
+        <v>0.4</v>
+      </c>
+      <c r="AU25">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="2" max="2" width="53.29296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A22" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A23" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A24" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A25" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>
